--- a/src/main/java/org/openCart/TestData/LoginTestData.xlsx
+++ b/src/main/java/org/openCart/TestData/LoginTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\IdeaProjects\openCart\src\main\java\org\openCart\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76EDE36A-1275-4027-B5D3-E98531641BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E09552-9FDE-4520-9241-898774F08060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="7">
   <si>
     <t>Expected Result</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>abc</t>
+  </si>
+  <si>
+    <t>shubhamchakole22@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -379,15 +382,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="1" max="1" width="40.21875" customWidth="1"/>
     <col min="2" max="2" width="26.88671875" customWidth="1"/>
     <col min="3" max="3" width="22.44140625" customWidth="1"/>
   </cols>
@@ -411,7 +414,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -444,6 +447,17 @@
       </c>
       <c r="C6" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -452,8 +466,10 @@
     <hyperlink ref="B2" r:id="rId2" xr:uid="{3D6326B5-510F-4953-8FDD-33475C65FAE1}"/>
     <hyperlink ref="A3" r:id="rId3" xr:uid="{D242E451-CCD7-4E2D-B349-67317BE5AA7C}"/>
     <hyperlink ref="B4" r:id="rId4" xr:uid="{DBA628C6-B642-40F9-9C75-5617758EC304}"/>
+    <hyperlink ref="A7" r:id="rId5" xr:uid="{55651B77-FBB7-4B1F-B9E0-70769B78D7CF}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{3BE7CAEC-5883-436D-AB54-83660C40559F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>